--- a/QRE/200KB request 100ms delay log/200KB 100ms delay graphs.xlsx
+++ b/QRE/200KB request 100ms delay log/200KB 100ms delay graphs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Technion\Semester7\CommunicationProject\LCCN-QUIC-Spin-Bit\QRE\200KB request 100ms delay log\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6F8FE19-E469-48CB-88F1-5B0AD77C49A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7208691-4FBC-44E7-8DB8-D1C9A94438C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{AB6AD377-0B89-4236-984F-99EE797705C6}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="13">
   <si>
     <t>Wireshark edges S2C</t>
   </si>
@@ -68,6 +68,9 @@
   </si>
   <si>
     <t>Wireshark initial</t>
+  </si>
+  <si>
+    <t>Extend:</t>
   </si>
 </sst>
 </file>
@@ -158,14 +161,26 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$G$4:$G$7</c:f>
+              <c:f>Sheet1!$G$4:$G$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>351.93899999999871</c:v>
                 </c:pt>
@@ -177,16 +192,19 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>752.41900000000044</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>818.59</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$E$4:$E$7</c:f>
+              <c:f>Sheet1!$E$4:$E$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>202.20899999999986</c:v>
                 </c:pt>
@@ -198,6 +216,9 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>142.5370000000008</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>142.53700000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -225,7 +246,19 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:xVal>
             <c:numRef>
@@ -440,6 +473,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time since connection started (ms)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="LID4096"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -502,6 +590,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>RTT (ms)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="LID4096"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -552,7 +695,7 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="r"/>
+      <c:legendPos val="b"/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -770,6 +913,9 @@
                 <c:pt idx="2">
                   <c:v>357.91</c:v>
                 </c:pt>
+                <c:pt idx="3">
+                  <c:v>764.37599999999998</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -786,6 +932,9 @@
                   <c:v>125</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>125</c:v>
                 </c:pt>
               </c:numCache>
@@ -830,6 +979,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time since connection started (ms)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="LID4096"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -893,6 +1097,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>RTT (ms)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="LID4096"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -943,7 +1202,7 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="r"/>
+      <c:legendPos val="b"/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2505,8 +2764,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{307E7D64-3B7B-46C2-BC7F-5684721812EC}">
   <dimension ref="A3:K41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M25" sqref="M25"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="S21" sqref="S21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2617,6 +2876,15 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8">
+        <v>142.53700000000001</v>
+      </c>
+      <c r="G8">
+        <v>818.59</v>
+      </c>
       <c r="I8">
         <v>120.88200000000001</v>
       </c>
@@ -2913,6 +3181,15 @@
       <c r="G37">
         <f>(F37-D41)*1000+F41</f>
         <v>764.37599999999918</v>
+      </c>
+      <c r="I37" t="s">
+        <v>12</v>
+      </c>
+      <c r="J37">
+        <v>125</v>
+      </c>
+      <c r="K37">
+        <v>764.37599999999998</v>
       </c>
     </row>
     <row r="40" spans="4:11" x14ac:dyDescent="0.3">

--- a/QRE/200KB request 100ms delay log/200KB 100ms delay graphs.xlsx
+++ b/QRE/200KB request 100ms delay log/200KB 100ms delay graphs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Technion\Semester7\CommunicationProject\LCCN-QUIC-Spin-Bit\QRE\200KB request 100ms delay log\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7208691-4FBC-44E7-8DB8-D1C9A94438C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF5134AB-C3D1-4E76-BE1B-D88D7FEA678D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{AB6AD377-0B89-4236-984F-99EE797705C6}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="18">
   <si>
     <t>Wireshark edges S2C</t>
   </si>
@@ -72,15 +72,36 @@
   <si>
     <t>Extend:</t>
   </si>
+  <si>
+    <t>Table for Presentation</t>
+  </si>
+  <si>
+    <t>timestamps</t>
+  </si>
+  <si>
+    <t>QRE</t>
+  </si>
+  <si>
+    <t>qlog</t>
+  </si>
+  <si>
+    <t>Null!</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -106,8 +127,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -139,6 +161,61 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Server to Client 100ms Delay</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="LID4096"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
@@ -150,6 +227,85 @@
           <c:order val="0"/>
           <c:tx>
             <c:v>QRE</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$G$4:$G$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>351.93899999999871</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>491.4250000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>609.88199999999961</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>752.41900000000044</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$4:$E$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>202.20899999999986</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>139.48600000000155</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>118.45699999999937</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>142.5370000000008</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-A885-4ECC-A7A8-FC433BA20760}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Wireshark</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -177,10 +333,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$G$4:$G$8</c:f>
+              <c:f>Sheet1!$G$4:$G$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>351.93899999999871</c:v>
                 </c:pt>
@@ -192,19 +348,16 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>752.41900000000044</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>818.59</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$E$4:$E$8</c:f>
+              <c:f>Sheet1!$E$4:$E$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>202.20899999999986</c:v>
                 </c:pt>
@@ -216,9 +369,6 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>142.5370000000008</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>142.53700000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -226,20 +376,20 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-A885-4ECC-A7A8-FC433BA20760}"/>
+              <c16:uniqueId val="{00000001-CF90-4728-93C1-BFCA6CDBD1CD}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
-          <c:order val="1"/>
+          <c:order val="2"/>
           <c:tx>
             <c:v>qlog</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:schemeClr val="accent3"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -250,11 +400,11 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:schemeClr val="accent3"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent2"/>
+                  <a:schemeClr val="accent3"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -494,7 +644,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Time since connection started (ms)</a:t>
+                  <a:t>Time since connection initiated (ms)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -783,6 +933,61 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Client to Server 100ms Delay</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="LID4096"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
@@ -794,6 +999,85 @@
           <c:order val="0"/>
           <c:tx>
             <c:v>QRE</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$G$41:$G$44</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>358.95800000000179</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>498.68800000000192</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>633.62100000000214</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>764.37599999999918</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$41:$E$44</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>130.4690000000015</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>139.73000000000013</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>134.93300000000019</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>130.75499999999707</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-44EC-4E6E-BD6E-75FC7D92329A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Wireshark</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -821,7 +1105,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$G$34:$G$37</c:f>
+              <c:f>Sheet1!$G$41:$G$44</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -842,7 +1126,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$E$34:$E$37</c:f>
+              <c:f>Sheet1!$E$41:$E$44</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -864,20 +1148,20 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-44EC-4E6E-BD6E-75FC7D92329A}"/>
+              <c16:uniqueId val="{00000001-0101-4BA5-801D-42152F24398E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
-          <c:order val="1"/>
+          <c:order val="2"/>
           <c:tx>
             <c:v>qlog</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:schemeClr val="accent3"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -888,11 +1172,11 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:schemeClr val="accent3"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent2"/>
+                  <a:schemeClr val="accent3"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -900,10 +1184,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$K$34:$K$37</c:f>
+              <c:f>Sheet1!$K$41:$K$43</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>154.61000000000001</c:v>
                 </c:pt>
@@ -912,19 +1196,16 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>357.91</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>764.37599999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$J$34:$J$37</c:f>
+              <c:f>Sheet1!$J$41:$J$43</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>141</c:v>
                 </c:pt>
@@ -932,9 +1213,6 @@
                   <c:v>125</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>125</c:v>
-                </c:pt>
-                <c:pt idx="3">
                   <c:v>125</c:v>
                 </c:pt>
               </c:numCache>
@@ -2429,15 +2707,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>479612</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>8965</xdr:rowOff>
+      <xdr:colOff>560294</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>116542</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>174812</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>62753</xdr:rowOff>
+      <xdr:colOff>255494</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>170330</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2762,15 +3040,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{307E7D64-3B7B-46C2-BC7F-5684721812EC}">
-  <dimension ref="A3:K41"/>
+  <dimension ref="A3:AD48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="S21" sqref="S21"/>
+    <sheetView tabSelected="1" topLeftCell="I27" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="V49" sqref="V49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
       <c r="D3" t="s">
         <v>1</v>
       </c>
@@ -2787,7 +3065,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.3">
       <c r="D4">
         <v>202.209</v>
       </c>
@@ -2808,8 +3086,11 @@
       <c r="J4">
         <v>158.58000000000001</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="AD4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30" x14ac:dyDescent="0.3">
       <c r="D5">
         <v>139.48599999999999</v>
       </c>
@@ -2830,8 +3111,11 @@
       <c r="J5">
         <v>227.19</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="W5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30" x14ac:dyDescent="0.3">
       <c r="D6">
         <v>118.45699999999999</v>
       </c>
@@ -2852,8 +3136,20 @@
       <c r="J6">
         <v>349.59</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="W6" t="s">
+        <v>14</v>
+      </c>
+      <c r="X6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z6" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30" x14ac:dyDescent="0.3">
       <c r="D7">
         <v>142.53700000000001</v>
       </c>
@@ -2874,33 +3170,45 @@
       <c r="J7">
         <v>370.76</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="W7">
+        <v>158.58000000000001</v>
+      </c>
+      <c r="Z7">
+        <v>150.55000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>12</v>
       </c>
-      <c r="E8">
-        <v>142.53700000000001</v>
-      </c>
-      <c r="G8">
-        <v>818.59</v>
-      </c>
       <c r="I8">
         <v>120.88200000000001</v>
       </c>
       <c r="J8">
         <v>380.22</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="W8">
+        <v>227.19</v>
+      </c>
+      <c r="Z8">
+        <v>194.23500000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.3">
       <c r="I9">
         <v>123.94499999999999</v>
       </c>
       <c r="J9">
         <v>397.7</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="W9">
+        <v>349.59</v>
+      </c>
+      <c r="Z9">
+        <v>119.627</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.3">
       <c r="D10" t="s">
         <v>11</v>
       </c>
@@ -2913,8 +3221,17 @@
       <c r="J10">
         <v>414.34</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="W10">
+        <v>351.93899999999871</v>
+      </c>
+      <c r="X10">
+        <v>202.209</v>
+      </c>
+      <c r="Y10">
+        <v>202.20899999999986</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.3">
       <c r="D11">
         <v>17.927318</v>
       </c>
@@ -2927,24 +3244,42 @@
       <c r="J11">
         <v>431.92</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="W11">
+        <v>370.76</v>
+      </c>
+      <c r="Z11">
+        <v>125.803</v>
+      </c>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.3">
       <c r="I12">
         <v>117.874</v>
       </c>
       <c r="J12">
         <v>488.89</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="W12">
+        <v>380.22</v>
+      </c>
+      <c r="Z12">
+        <v>120.88200000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.3">
       <c r="I13">
         <v>124.294</v>
       </c>
       <c r="J13">
         <v>504.69</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="W13">
+        <v>397.7</v>
+      </c>
+      <c r="Z13">
+        <v>123.94499999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>4</v>
       </c>
@@ -2954,8 +3289,14 @@
       <c r="J14">
         <v>521.53</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="W14">
+        <v>414.34</v>
+      </c>
+      <c r="Z14">
+        <v>126.074</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>18.151287</v>
       </c>
@@ -2965,24 +3306,45 @@
       <c r="J15">
         <v>538.97</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="W15">
+        <v>431.92</v>
+      </c>
+      <c r="Z15">
+        <v>129.15299999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.3">
       <c r="I16">
         <v>127.619</v>
       </c>
       <c r="J16">
         <v>565.96</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="W16">
+        <v>488.89</v>
+      </c>
+      <c r="Z16">
+        <v>117.874</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26" x14ac:dyDescent="0.3">
       <c r="I17">
         <v>119.259</v>
       </c>
       <c r="J17">
         <v>578.88</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="W17">
+        <v>491.4250000000003</v>
+      </c>
+      <c r="X17">
+        <v>139.48599999999999</v>
+      </c>
+      <c r="Y17">
+        <v>139.48600000000155</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>0</v>
       </c>
@@ -2992,8 +3354,14 @@
       <c r="J18">
         <v>624.32000000000005</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="W18">
+        <v>504.69</v>
+      </c>
+      <c r="Z18">
+        <v>124.294</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18.076277999999999</v>
       </c>
@@ -3003,212 +3371,412 @@
       <c r="J19">
         <v>630.94000000000005</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="W19">
+        <v>521.53</v>
+      </c>
+      <c r="Z19">
+        <v>115.34099999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26" x14ac:dyDescent="0.3">
       <c r="I20">
         <v>124.297</v>
       </c>
       <c r="J20">
         <v>645.98</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="W20">
+        <v>538.97</v>
+      </c>
+      <c r="Z20">
+        <v>117.08199999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26" x14ac:dyDescent="0.3">
       <c r="I21">
         <v>125.5</v>
       </c>
       <c r="J21">
         <v>668</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="W21">
+        <v>565.96</v>
+      </c>
+      <c r="Z21">
+        <v>127.619</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26" x14ac:dyDescent="0.3">
       <c r="I22">
         <v>127.134</v>
       </c>
       <c r="J22">
         <v>683.65</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="W22">
+        <v>578.88</v>
+      </c>
+      <c r="Z22">
+        <v>119.259</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26" x14ac:dyDescent="0.3">
       <c r="I23">
         <v>119.17400000000001</v>
       </c>
       <c r="J23">
         <v>695.28</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="W23">
+        <v>609.88199999999961</v>
+      </c>
+      <c r="X23">
+        <v>118.45699999999999</v>
+      </c>
+      <c r="Y23">
+        <v>118.45699999999937</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26" x14ac:dyDescent="0.3">
       <c r="I24">
         <v>116.117</v>
       </c>
       <c r="J24">
         <v>714.49</v>
       </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="W24">
+        <v>624.32000000000005</v>
+      </c>
+      <c r="Z24">
+        <v>129.19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26" x14ac:dyDescent="0.3">
       <c r="I25">
         <v>130.78299999999999</v>
       </c>
       <c r="J25">
         <v>755.33</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="W25">
+        <v>630.94000000000005</v>
+      </c>
+      <c r="Z25">
+        <v>115.29300000000001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:26" x14ac:dyDescent="0.3">
       <c r="I26">
         <v>124.694</v>
       </c>
       <c r="J26">
         <v>773.15</v>
       </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="W26">
+        <v>645.98</v>
+      </c>
+      <c r="Z26">
+        <v>124.297</v>
+      </c>
+    </row>
+    <row r="27" spans="1:26" x14ac:dyDescent="0.3">
       <c r="I27">
         <v>125.10899999999999</v>
       </c>
       <c r="J27">
         <v>793.31</v>
       </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="W27">
+        <v>668</v>
+      </c>
+      <c r="Z27">
+        <v>125.5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:26" x14ac:dyDescent="0.3">
       <c r="I28">
         <v>123.5</v>
       </c>
       <c r="J28">
         <v>807.41</v>
       </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="W28">
+        <v>683.65</v>
+      </c>
+      <c r="Z28">
+        <v>127.134</v>
+      </c>
+    </row>
+    <row r="29" spans="1:26" x14ac:dyDescent="0.3">
       <c r="I29">
         <v>118.556</v>
       </c>
       <c r="J29">
         <v>818.59</v>
       </c>
-    </row>
-    <row r="33" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="D33" t="s">
+      <c r="W29">
+        <v>695.28</v>
+      </c>
+      <c r="Z29">
+        <v>119.17400000000001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="W30">
+        <v>714.49</v>
+      </c>
+      <c r="Z30">
+        <v>116.117</v>
+      </c>
+    </row>
+    <row r="31" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="W31">
+        <v>752.41900000000044</v>
+      </c>
+      <c r="X31">
+        <v>142.53700000000001</v>
+      </c>
+      <c r="Y31">
+        <v>142.5370000000008</v>
+      </c>
+    </row>
+    <row r="32" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="W32">
+        <v>755.33</v>
+      </c>
+      <c r="Z32">
+        <v>130.78299999999999</v>
+      </c>
+    </row>
+    <row r="33" spans="4:26" x14ac:dyDescent="0.3">
+      <c r="W33">
+        <v>773.15</v>
+      </c>
+      <c r="Z33">
+        <v>124.694</v>
+      </c>
+    </row>
+    <row r="34" spans="4:26" x14ac:dyDescent="0.3">
+      <c r="W34">
+        <v>793.31</v>
+      </c>
+      <c r="Z34">
+        <v>125.10899999999999</v>
+      </c>
+    </row>
+    <row r="35" spans="4:26" x14ac:dyDescent="0.3">
+      <c r="W35">
+        <v>807.41</v>
+      </c>
+      <c r="Z35">
+        <v>123.5</v>
+      </c>
+    </row>
+    <row r="36" spans="4:26" x14ac:dyDescent="0.3">
+      <c r="W36">
+        <v>818.59</v>
+      </c>
+      <c r="Z36">
+        <v>118.556</v>
+      </c>
+    </row>
+    <row r="39" spans="4:26" x14ac:dyDescent="0.3">
+      <c r="W39" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="40" spans="4:26" x14ac:dyDescent="0.3">
+      <c r="D40" t="s">
         <v>3</v>
       </c>
-      <c r="E33" t="s">
+      <c r="E40" t="s">
         <v>2</v>
       </c>
-      <c r="F33" t="s">
+      <c r="F40" t="s">
         <v>7</v>
       </c>
-      <c r="G33" t="s">
+      <c r="G40" t="s">
         <v>8</v>
       </c>
-      <c r="J33" t="s">
+      <c r="J40" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="34" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="D34">
+      <c r="W40" t="s">
+        <v>14</v>
+      </c>
+      <c r="X40" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y40" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z40" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="41" spans="4:26" x14ac:dyDescent="0.3">
+      <c r="D41">
         <v>130.46899999999999</v>
       </c>
-      <c r="E34">
-        <f>(F34-A15)*1000</f>
+      <c r="E41">
+        <f>(F41-A15)*1000</f>
         <v>130.4690000000015</v>
       </c>
-      <c r="F34">
+      <c r="F41">
         <v>18.281756000000001</v>
       </c>
-      <c r="G34">
-        <f>(F34-D41)*1000+F41</f>
+      <c r="G41">
+        <f>(F41-D48)*1000+F48</f>
         <v>358.95800000000179</v>
       </c>
-      <c r="J34">
+      <c r="J41">
         <v>141</v>
       </c>
-      <c r="K34">
+      <c r="K41">
         <v>154.61000000000001</v>
       </c>
-    </row>
-    <row r="35" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="D35">
+      <c r="W41">
+        <v>154.61000000000001</v>
+      </c>
+      <c r="Z41">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="42" spans="4:26" x14ac:dyDescent="0.3">
+      <c r="D42">
         <v>139.72999999999999</v>
       </c>
-      <c r="E35">
-        <f>(F35-F34)*1000</f>
+      <c r="E42">
+        <f>(F42-F41)*1000</f>
         <v>139.73000000000013</v>
       </c>
-      <c r="F35">
+      <c r="F42">
         <v>18.421486000000002</v>
       </c>
-      <c r="G35">
-        <f>(F35-D41)*1000+F41</f>
+      <c r="G42">
+        <f>(F42-D48)*1000+F48</f>
         <v>498.68800000000192</v>
       </c>
-      <c r="J35">
+      <c r="J42">
         <v>125</v>
       </c>
-      <c r="K35">
+      <c r="K42">
         <v>357.29</v>
       </c>
-    </row>
-    <row r="36" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="D36">
+      <c r="W42">
+        <v>357.29</v>
+      </c>
+      <c r="Z42">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="43" spans="4:26" x14ac:dyDescent="0.3">
+      <c r="D43">
         <v>134.93299999999999</v>
       </c>
-      <c r="E36">
-        <f>(F36-F35)*1000</f>
+      <c r="E43">
+        <f>(F43-F42)*1000</f>
         <v>134.93300000000019</v>
       </c>
-      <c r="F36">
+      <c r="F43">
         <v>18.556419000000002</v>
       </c>
-      <c r="G36">
-        <f>(F36-D41)*1000+F41</f>
+      <c r="G43">
+        <f>(F43-D48)*1000+F48</f>
         <v>633.62100000000214</v>
       </c>
-      <c r="J36">
+      <c r="J43">
         <v>125</v>
       </c>
-      <c r="K36">
+      <c r="K43">
         <v>357.91</v>
       </c>
-    </row>
-    <row r="37" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="D37">
+      <c r="W43">
+        <v>357.91</v>
+      </c>
+      <c r="Z43">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="44" spans="4:26" x14ac:dyDescent="0.3">
+      <c r="D44">
         <v>130.755</v>
       </c>
-      <c r="E37">
-        <f>(F37-F36)*1000</f>
+      <c r="E44">
+        <f>(F44-F43)*1000</f>
         <v>130.75499999999707</v>
       </c>
-      <c r="F37">
+      <c r="F44">
         <v>18.687173999999999</v>
       </c>
-      <c r="G37">
-        <f>(F37-D41)*1000+F41</f>
+      <c r="G44">
+        <f>(F44-D48)*1000+F48</f>
         <v>764.37599999999918</v>
       </c>
-      <c r="I37" t="s">
+      <c r="I44" t="s">
         <v>12</v>
       </c>
-      <c r="J37">
-        <v>125</v>
-      </c>
-      <c r="K37">
-        <v>764.37599999999998</v>
-      </c>
-    </row>
-    <row r="40" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="D40" t="s">
+      <c r="W44">
+        <v>358.95800000000179</v>
+      </c>
+      <c r="X44">
+        <v>130.46899999999999</v>
+      </c>
+      <c r="Y44">
+        <v>130.4690000000015</v>
+      </c>
+    </row>
+    <row r="45" spans="4:26" x14ac:dyDescent="0.3">
+      <c r="W45">
+        <v>498.68800000000192</v>
+      </c>
+      <c r="X45">
+        <v>139.72999999999999</v>
+      </c>
+      <c r="Y45">
+        <v>139.73000000000013</v>
+      </c>
+    </row>
+    <row r="46" spans="4:26" x14ac:dyDescent="0.3">
+      <c r="W46">
+        <v>633.62100000000214</v>
+      </c>
+      <c r="X46">
+        <v>134.93299999999999</v>
+      </c>
+      <c r="Y46">
+        <v>134.93300000000019</v>
+      </c>
+    </row>
+    <row r="47" spans="4:26" x14ac:dyDescent="0.3">
+      <c r="D47" t="s">
         <v>9</v>
       </c>
-      <c r="F40" t="s">
+      <c r="F47" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="41" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="D41">
+      <c r="W47">
+        <v>764.37599999999918</v>
+      </c>
+      <c r="X47">
+        <v>130.755</v>
+      </c>
+      <c r="Y47">
+        <v>130.75499999999707</v>
+      </c>
+    </row>
+    <row r="48" spans="4:26" x14ac:dyDescent="0.3">
+      <c r="D48">
         <v>17.927318</v>
       </c>
-      <c r="F41">
+      <c r="F48">
         <v>4.5199999999999996</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="W41:Z47">
+    <sortCondition ref="W41:W47"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
